--- a/pred_ohlcv/54_21/2020-01-15 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 RNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1412745.285807352</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1586912.138307352</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2000438.591607352</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2024403.705907352</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2080693.651707352</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2080693.651707352</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2167894.019007352</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2167722.688807352</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2167722.688807352</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2167667.688807352</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2167667.688807352</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2167945.391207352</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2167893.391207352</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2167643.391207352</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2167643.391207352</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2372912.964107352</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2372860.964107352</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2337092.564107352</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-2291451.590807352</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2291451.590807352</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-2320050.708907352</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-2319998.708907352</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-2319946.708907352</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2319946.708907352</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2334798.798907352</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-2334798.798907352</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-2272076.768907352</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-2525710.220607352</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-2722289.227207352</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2804670.634307352</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2901451.791707352</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-3130095.791707352</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3179133.520407352</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 RNT ohlcv.xlsx
@@ -1614,7 +1614,7 @@
         <v>-2167667.688807352</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2337092.564107352</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-2319998.708907352</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-2722289.227207352</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2804670.634307352</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2806585.791707352</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2806585.791707352</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2901451.791707352</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-3130095.791707352</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3179133.520407352</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
